--- a/tests/_test.xlsx
+++ b/tests/_test.xlsx
@@ -22,19 +22,19 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
-    <t xml:space="preserve">COLA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COLE</t>
+    <t xml:space="preserve">Letters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currency</t>
   </si>
   <si>
     <t xml:space="preserve">A</t>
@@ -155,8 +155,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="mm/dd/yy"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -223,12 +224,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,10 +257,13 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.3"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -284,11 +292,11 @@
       <c r="C2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>1000</v>
+      <c r="D2" s="2" t="n">
+        <v>43971</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>10000</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -301,11 +309,11 @@
       <c r="C3" s="1" t="n">
         <v>200</v>
       </c>
-      <c r="D3" s="1" t="n">
-        <v>2000</v>
+      <c r="D3" s="2" t="n">
+        <v>43576.9403819444</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>20000</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -318,11 +326,11 @@
       <c r="C4" s="1" t="n">
         <v>300</v>
       </c>
-      <c r="D4" s="1" t="n">
-        <v>3000</v>
+      <c r="D4" s="2" t="n">
+        <v>43577.9403819444</v>
       </c>
       <c r="E4" s="1" t="n">
-        <v>30000</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -335,11 +343,11 @@
       <c r="C5" s="1" t="n">
         <v>400</v>
       </c>
-      <c r="D5" s="1" t="n">
-        <v>4000</v>
+      <c r="D5" s="2" t="n">
+        <v>43578.9403819444</v>
       </c>
       <c r="E5" s="1" t="n">
-        <v>40000</v>
+        <v>15.49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,11 +360,11 @@
       <c r="C6" s="1" t="n">
         <v>500</v>
       </c>
-      <c r="D6" s="1" t="n">
-        <v>5000</v>
+      <c r="D6" s="2" t="n">
+        <v>43579.9403819444</v>
       </c>
       <c r="E6" s="1" t="n">
-        <v>50000</v>
+        <v>16.5</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -369,11 +377,11 @@
       <c r="C7" s="1" t="n">
         <v>600</v>
       </c>
-      <c r="D7" s="1" t="n">
-        <v>6000</v>
+      <c r="D7" s="2" t="n">
+        <v>43580.9403819444</v>
       </c>
       <c r="E7" s="1" t="n">
-        <v>60000</v>
+        <v>17.5</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -386,11 +394,11 @@
       <c r="C8" s="1" t="n">
         <v>700</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>7000</v>
+      <c r="D8" s="2" t="n">
+        <v>43581.9403819444</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>70000</v>
+        <v>48398.58</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -403,11 +411,11 @@
       <c r="C9" s="1" t="n">
         <v>800</v>
       </c>
-      <c r="D9" s="1" t="n">
-        <v>8000</v>
+      <c r="D9" s="2" t="n">
+        <v>43582.9403819444</v>
       </c>
       <c r="E9" s="1" t="n">
-        <v>80000</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -420,11 +428,11 @@
       <c r="C10" s="1" t="n">
         <v>900</v>
       </c>
-      <c r="D10" s="1" t="n">
-        <v>9000</v>
+      <c r="D10" s="2" t="n">
+        <v>43583.9403819444</v>
       </c>
       <c r="E10" s="1" t="n">
-        <v>90000</v>
+        <v>20.5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -437,11 +445,11 @@
       <c r="C11" s="1" t="n">
         <v>1000</v>
       </c>
-      <c r="D11" s="1" t="n">
-        <v>10000</v>
+      <c r="D11" s="2" t="n">
+        <v>43584.9403819444</v>
       </c>
       <c r="E11" s="1" t="n">
-        <v>100000</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -454,11 +462,11 @@
       <c r="C12" s="1" t="n">
         <v>1100</v>
       </c>
-      <c r="D12" s="1" t="n">
-        <v>11000</v>
+      <c r="D12" s="2" t="n">
+        <v>43585.9403819444</v>
       </c>
       <c r="E12" s="1" t="n">
-        <v>110000</v>
+        <v>255.95</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -471,11 +479,11 @@
       <c r="C13" s="1" t="n">
         <v>1200</v>
       </c>
-      <c r="D13" s="1" t="n">
-        <v>12000</v>
+      <c r="D13" s="2" t="n">
+        <v>43586.9403819444</v>
       </c>
       <c r="E13" s="1" t="n">
-        <v>120000</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -488,11 +496,11 @@
       <c r="C14" s="1" t="n">
         <v>1300</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>13000</v>
+      <c r="D14" s="2" t="n">
+        <v>43587.9403819444</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>130000</v>
+        <v>24.5</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -505,11 +513,11 @@
       <c r="C15" s="1" t="n">
         <v>1400</v>
       </c>
-      <c r="D15" s="1" t="n">
-        <v>14000</v>
+      <c r="D15" s="2" t="n">
+        <v>43588.9403819444</v>
       </c>
       <c r="E15" s="1" t="n">
-        <v>140000</v>
+        <v>25.5</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -522,11 +530,11 @@
       <c r="C16" s="1" t="n">
         <v>1500</v>
       </c>
-      <c r="D16" s="1" t="n">
-        <v>15000</v>
+      <c r="D16" s="2" t="n">
+        <v>43589.9403819444</v>
       </c>
       <c r="E16" s="1" t="n">
-        <v>150000</v>
+        <v>26.5</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -539,11 +547,11 @@
       <c r="C17" s="1" t="n">
         <v>1600</v>
       </c>
-      <c r="D17" s="1" t="n">
-        <v>16000</v>
+      <c r="D17" s="2" t="n">
+        <v>43590.9403819444</v>
       </c>
       <c r="E17" s="1" t="n">
-        <v>160000</v>
+        <v>494949</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -556,11 +564,11 @@
       <c r="C18" s="1" t="n">
         <v>1700</v>
       </c>
-      <c r="D18" s="1" t="n">
-        <v>17000</v>
+      <c r="D18" s="2" t="n">
+        <v>43591.9403819444</v>
       </c>
       <c r="E18" s="1" t="n">
-        <v>170000</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -573,11 +581,11 @@
       <c r="C19" s="1" t="n">
         <v>1800</v>
       </c>
-      <c r="D19" s="1" t="n">
-        <v>18000</v>
+      <c r="D19" s="2" t="n">
+        <v>43592.9403819444</v>
       </c>
       <c r="E19" s="1" t="n">
-        <v>180000</v>
+        <v>29.5</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,11 +598,11 @@
       <c r="C20" s="1" t="n">
         <v>1900</v>
       </c>
-      <c r="D20" s="1" t="n">
-        <v>19000</v>
+      <c r="D20" s="2" t="n">
+        <v>43593.9403819444</v>
       </c>
       <c r="E20" s="1" t="n">
-        <v>190000</v>
+        <v>433.0498</v>
       </c>
     </row>
   </sheetData>
